--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H2">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I2">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J2">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>27.09682458275</v>
+        <v>37.68727127804745</v>
       </c>
       <c r="R2">
-        <v>243.87142124475</v>
+        <v>339.185441502427</v>
       </c>
       <c r="S2">
-        <v>0.0009129414394887271</v>
+        <v>0.001171218333455149</v>
       </c>
       <c r="T2">
-        <v>0.0009129414394887272</v>
+        <v>0.001171218333455149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H3">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I3">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J3">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>1075.933047199725</v>
+        <v>1384.077880933407</v>
       </c>
       <c r="R3">
-        <v>9683.397424797526</v>
+        <v>12456.70092840066</v>
       </c>
       <c r="S3">
-        <v>0.03625014665110703</v>
+        <v>0.04301339242948091</v>
       </c>
       <c r="T3">
-        <v>0.03625014665110703</v>
+        <v>0.0430133924294809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H4">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I4">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J4">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>3.148463282358334</v>
+        <v>9.607529043289002</v>
       </c>
       <c r="R4">
-        <v>28.336169541225</v>
+        <v>86.46776138960102</v>
       </c>
       <c r="S4">
-        <v>0.0001060774701624432</v>
+        <v>0.0002985759852891602</v>
       </c>
       <c r="T4">
-        <v>0.0001060774701624432</v>
+        <v>0.0002985759852891602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H5">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I5">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J5">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>230.4124233849389</v>
+        <v>353.690038169504</v>
       </c>
       <c r="R5">
-        <v>2073.71181046445</v>
+        <v>3183.210343525536</v>
       </c>
       <c r="S5">
-        <v>0.007763014770927962</v>
+        <v>0.01099172858677808</v>
       </c>
       <c r="T5">
-        <v>0.007763014770927962</v>
+        <v>0.01099172858677808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H6">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I6">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J6">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>1.614790321119445</v>
+        <v>4.776833912240557</v>
       </c>
       <c r="R6">
-        <v>14.533112890075</v>
+        <v>42.99150521016501</v>
       </c>
       <c r="S6">
-        <v>5.440523097949048E-05</v>
+        <v>0.0001484510622329217</v>
       </c>
       <c r="T6">
-        <v>5.440523097949049E-05</v>
+        <v>0.0001484510622329217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J7">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>545.8250943777599</v>
+        <v>590.1392648209759</v>
       </c>
       <c r="R7">
-        <v>4912.42584939984</v>
+        <v>5311.253383388784</v>
       </c>
       <c r="S7">
-        <v>0.01838984290755336</v>
+        <v>0.01833993024198275</v>
       </c>
       <c r="T7">
-        <v>0.01838984290755336</v>
+        <v>0.01833993024198275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J8">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>21673.06561100894</v>
@@ -948,10 +948,10 @@
         <v>195057.5904990805</v>
       </c>
       <c r="S8">
-        <v>0.7302051078576997</v>
+        <v>0.6735401881052586</v>
       </c>
       <c r="T8">
-        <v>0.7302051078576999</v>
+        <v>0.6735401881052587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J9">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>63.421094342256</v>
+        <v>150.442840091088</v>
       </c>
       <c r="R9">
-        <v>570.789849080304</v>
+        <v>1353.985560819792</v>
       </c>
       <c r="S9">
-        <v>0.002136772336033384</v>
+        <v>0.004675356067882249</v>
       </c>
       <c r="T9">
-        <v>0.002136772336033385</v>
+        <v>0.00467535606788225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J10">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>4641.314422500832</v>
+        <v>5538.378662650368</v>
       </c>
       <c r="R10">
-        <v>41771.82980250749</v>
+        <v>49845.40796385331</v>
       </c>
       <c r="S10">
-        <v>0.1563743477416596</v>
+        <v>0.1721178107976033</v>
       </c>
       <c r="T10">
-        <v>0.1563743477416596</v>
+        <v>0.1721178107976033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J11">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>32.52754125243199</v>
+        <v>74.79971771752</v>
       </c>
       <c r="R11">
-        <v>292.747871271888</v>
+        <v>673.19745945768</v>
       </c>
       <c r="S11">
-        <v>0.001095912188652862</v>
+        <v>0.002324572667564278</v>
       </c>
       <c r="T11">
-        <v>0.001095912188652862</v>
+        <v>0.002324572667564278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H12">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>0.06696663846000001</v>
+        <v>0.2623291984112222</v>
       </c>
       <c r="R12">
-        <v>0.6026997461400001</v>
+        <v>2.360962785701</v>
       </c>
       <c r="S12">
-        <v>2.25622818373757E-06</v>
+        <v>8.152481094028811E-06</v>
       </c>
       <c r="T12">
-        <v>2.25622818373757E-06</v>
+        <v>8.152481094028807E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H13">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>2.659042913274</v>
+        <v>9.634129209441001</v>
       </c>
       <c r="R13">
-        <v>23.931386219466</v>
+        <v>86.70716288496901</v>
       </c>
       <c r="S13">
-        <v>8.958800532118649E-05</v>
+        <v>0.000299402646419395</v>
       </c>
       <c r="T13">
-        <v>8.958800532118652E-05</v>
+        <v>0.0002994026464193949</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H14">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>0.007781059426000001</v>
+        <v>0.06687497680700001</v>
       </c>
       <c r="R14">
-        <v>0.07002953483400001</v>
+        <v>0.6018747912630001</v>
       </c>
       <c r="S14">
-        <v>2.62158083188906E-07</v>
+        <v>2.078293180418454E-06</v>
       </c>
       <c r="T14">
-        <v>2.621580831889061E-07</v>
+        <v>2.078293180418454E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H15">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>0.5694374042386667</v>
+        <v>2.461924704352</v>
       </c>
       <c r="R15">
-        <v>5.124936638148001</v>
+        <v>22.157322339168</v>
       </c>
       <c r="S15">
-        <v>1.918538469099144E-05</v>
+        <v>7.650995287108512E-05</v>
       </c>
       <c r="T15">
-        <v>1.918538469099145E-05</v>
+        <v>7.65099528710851E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H16">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>0.003990765755333333</v>
+        <v>0.03325003293277778</v>
       </c>
       <c r="R16">
-        <v>0.035916891798</v>
+        <v>0.299250296395</v>
       </c>
       <c r="S16">
-        <v>1.344561766715536E-07</v>
+        <v>1.033320981812256E-06</v>
       </c>
       <c r="T16">
-        <v>1.344561766715536E-07</v>
+        <v>1.033320981812255E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H17">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I17">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J17">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>27.90419743387999</v>
+        <v>49.19556140458844</v>
       </c>
       <c r="R17">
-        <v>251.1377769049199</v>
+        <v>442.760052641296</v>
       </c>
       <c r="S17">
-        <v>0.0009401433033330968</v>
+        <v>0.00152886482591365</v>
       </c>
       <c r="T17">
-        <v>0.0009401433033330969</v>
+        <v>0.00152886482591365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H18">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I18">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J18">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>1107.991384119972</v>
+        <v>1806.723757680336</v>
       </c>
       <c r="R18">
-        <v>9971.922457079747</v>
+        <v>16260.51381912302</v>
       </c>
       <c r="S18">
-        <v>0.03733025049007185</v>
+        <v>0.05614808174548792</v>
       </c>
       <c r="T18">
-        <v>0.03733025049007186</v>
+        <v>0.05614808174548793</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H19">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I19">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J19">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>3.242274413961333</v>
+        <v>12.541310871472</v>
       </c>
       <c r="R19">
-        <v>29.180469725652</v>
+        <v>112.871797843248</v>
       </c>
       <c r="S19">
-        <v>0.0001092381382792612</v>
+        <v>0.0003897499797706071</v>
       </c>
       <c r="T19">
-        <v>0.0001092381382792612</v>
+        <v>0.0003897499797706072</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H20">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I20">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J20">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>237.2777567983049</v>
+        <v>461.693813345792</v>
       </c>
       <c r="R20">
-        <v>2135.499811184744</v>
+        <v>4155.244320112128</v>
       </c>
       <c r="S20">
-        <v>0.007994320374646501</v>
+        <v>0.01434819344292487</v>
       </c>
       <c r="T20">
-        <v>0.007994320374646502</v>
+        <v>0.01434819344292487</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H21">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I21">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J21">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>1.662904367160444</v>
+        <v>6.235501220435556</v>
       </c>
       <c r="R21">
-        <v>14.966139304444</v>
+        <v>56.11951098392</v>
       </c>
       <c r="S21">
-        <v>5.602628094119928E-05</v>
+        <v>0.0001937824920720673</v>
       </c>
       <c r="T21">
-        <v>5.60262809411993E-05</v>
+        <v>0.0001937824920720673</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H22">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>0.10218517366</v>
+        <v>0.2594495334152222</v>
       </c>
       <c r="R22">
-        <v>0.9196665629399999</v>
+        <v>2.335045800737</v>
       </c>
       <c r="S22">
-        <v>3.442804866329406E-06</v>
+        <v>8.062988904142171E-06</v>
       </c>
       <c r="T22">
-        <v>3.442804866329406E-06</v>
+        <v>8.062988904142171E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H23">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>4.057464554154</v>
+        <v>9.528372531117</v>
       </c>
       <c r="R23">
-        <v>36.517180987386</v>
+        <v>85.755352780053</v>
       </c>
       <c r="S23">
-        <v>0.000136703380849355</v>
+        <v>0.0002961160152482351</v>
       </c>
       <c r="T23">
-        <v>0.000136703380849355</v>
+        <v>0.0002961160152482352</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H24">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>0.01187320921266667</v>
+        <v>0.06614087045900001</v>
       </c>
       <c r="R24">
-        <v>0.106858882914</v>
+        <v>0.595267834131</v>
       </c>
       <c r="S24">
-        <v>4.000300727806771E-07</v>
+        <v>2.055479143096939E-06</v>
       </c>
       <c r="T24">
-        <v>4.000300727806771E-07</v>
+        <v>2.05547914309694E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H25">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>0.8689111679897779</v>
+        <v>2.434899430624</v>
       </c>
       <c r="R25">
-        <v>7.820200511908</v>
+        <v>21.914094875616</v>
       </c>
       <c r="S25">
-        <v>2.927520197320154E-05</v>
+        <v>7.567008054858785E-05</v>
       </c>
       <c r="T25">
-        <v>2.927520197320154E-05</v>
+        <v>7.567008054858786E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H26">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>0.006089555950888889</v>
+        <v>0.03288503751277778</v>
       </c>
       <c r="R26">
-        <v>0.054806003558</v>
+        <v>0.295965337615</v>
       </c>
       <c r="S26">
-        <v>2.051682461416826E-07</v>
+        <v>1.02197791257338E-06</v>
       </c>
       <c r="T26">
-        <v>2.051682461416826E-07</v>
+        <v>1.02197791257338E-06</v>
       </c>
     </row>
   </sheetData>
